--- a/assets/ExcelResults/BangChamCongThang9Nam2023.xlsx
+++ b/assets/ExcelResults/BangChamCongThang9Nam2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>PHÒNG KHÁM ĐA KHOA THIỆN TRANG</t>
   </si>
@@ -167,16 +167,10 @@
     <t>Trịnh Lê Phương Nghi</t>
   </si>
   <si>
-    <t>Đặng Châu Khánh Huyền</t>
-  </si>
-  <si>
-    <t>Ngô Kinh Hòa</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Nha Trang, ngày 07 tháng 11 năm 2023</t>
+    <t>Nha Trang, ngày 12 tháng 11 năm 2023</t>
   </si>
   <si>
     <t>Giám đốc Công ty</t>
@@ -273,7 +267,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +289,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -332,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -361,9 +349,6 @@
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,16 +649,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:WYZ50"/>
+  <dimension ref="A1:WYZ48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:AG46"/>
+      <selection activeCell="A5" sqref="A5:AG44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.427" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="3.89" customWidth="true" style="0"/>
     <col min="4" max="4" width="3.89" customWidth="true" style="0"/>
     <col min="5" max="5" width="3.89" customWidth="true" style="0"/>
@@ -977,86 +962,86 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG8" s="7"/>
     </row>
@@ -1068,84 +1053,84 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG9" s="7"/>
     </row>
@@ -1157,84 +1142,84 @@
         <v>15</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG10" s="7"/>
     </row>
@@ -1246,76 +1231,76 @@
         <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V11" s="8"/>
       <c r="W11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG11" s="7"/>
     </row>
@@ -1327,86 +1312,86 @@
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG12" s="7"/>
     </row>
@@ -1418,84 +1403,84 @@
         <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG13" s="7"/>
     </row>
@@ -1507,84 +1492,84 @@
         <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S14" s="8"/>
       <c r="T14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG14" s="7"/>
     </row>
@@ -1596,84 +1581,84 @@
         <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG15" s="7"/>
     </row>
@@ -1685,86 +1670,86 @@
         <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG16" s="7"/>
     </row>
@@ -1776,84 +1761,84 @@
         <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG17" s="7"/>
     </row>
@@ -1865,86 +1850,86 @@
         <v>23</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG18" s="7"/>
     </row>
@@ -1956,84 +1941,84 @@
         <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S19" s="8"/>
       <c r="T19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG19" s="7"/>
     </row>
@@ -2045,84 +2030,84 @@
         <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S20" s="8"/>
       <c r="T20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG20" s="7"/>
     </row>
@@ -2134,84 +2119,84 @@
         <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S21" s="8"/>
       <c r="T21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG21" s="7"/>
     </row>
@@ -2223,84 +2208,84 @@
         <v>27</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S22" s="8"/>
       <c r="T22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG22" s="7"/>
     </row>
@@ -2312,88 +2297,88 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S23" s="8"/>
       <c r="T23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG23" s="7"/>
     </row>
@@ -2405,84 +2390,84 @@
         <v>29</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S24" s="8"/>
       <c r="T24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG24" s="7"/>
     </row>
@@ -2494,84 +2479,84 @@
         <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S25" s="8"/>
       <c r="T25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG25" s="7"/>
     </row>
@@ -2583,86 +2568,86 @@
         <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG26" s="7"/>
     </row>
@@ -2674,84 +2659,84 @@
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S27" s="8"/>
       <c r="T27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG27" s="7"/>
     </row>
@@ -2763,86 +2748,86 @@
         <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG28" s="7"/>
     </row>
@@ -2854,84 +2839,84 @@
         <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S29" s="8"/>
       <c r="T29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG29" s="7"/>
     </row>
@@ -2943,84 +2928,84 @@
         <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG30" s="7"/>
     </row>
@@ -3032,88 +3017,88 @@
         <v>36</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S31" s="8"/>
       <c r="T31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG31" s="7"/>
     </row>
@@ -3125,86 +3110,86 @@
         <v>37</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG32" s="7"/>
     </row>
@@ -3216,84 +3201,84 @@
         <v>38</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S33" s="8"/>
       <c r="T33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG33" s="7"/>
     </row>
@@ -3305,84 +3290,84 @@
         <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S34" s="8"/>
       <c r="T34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG34" s="7"/>
     </row>
@@ -3394,84 +3379,84 @@
         <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG35" s="7"/>
     </row>
@@ -3483,84 +3468,84 @@
         <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG36" s="7"/>
     </row>
@@ -3572,84 +3557,84 @@
         <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG37" s="7"/>
     </row>
@@ -3661,86 +3646,86 @@
         <v>43</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG38" s="7"/>
     </row>
@@ -3752,88 +3737,88 @@
         <v>44</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S39" s="8"/>
       <c r="T39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF39" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG39" s="7"/>
     </row>
@@ -3845,84 +3830,84 @@
         <v>45</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S40" s="8"/>
       <c r="T40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF40" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG40" s="7"/>
     </row>
@@ -3934,84 +3919,84 @@
         <v>46</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S41" s="8"/>
       <c r="T41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG41" s="7"/>
     </row>
@@ -4023,84 +4008,84 @@
         <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S42" s="8"/>
       <c r="T42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF42" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG42" s="7"/>
     </row>
@@ -4112,84 +4097,84 @@
         <v>48</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG43" s="7"/>
     </row>
@@ -4201,190 +4186,112 @@
         <v>49</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S44" s="8"/>
       <c r="T44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG44" s="7"/>
+    </row>
+    <row r="46" spans="1:16224">
+      <c r="X46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16224">
+      <c r="L47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AB44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG44" s="7"/>
-    </row>
-    <row r="45" spans="1:16224">
-      <c r="A45" s="8">
-        <v>38</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="7"/>
-    </row>
-    <row r="46" spans="1:16224">
-      <c r="A46" s="8">
-        <v>39</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="7"/>
     </row>
     <row r="48" spans="1:16224">
+      <c r="L48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="X48" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16224">
-      <c r="L49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16224">
-      <c r="L50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4396,13 +4303,13 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:AG5"/>
+    <mergeCell ref="X46:AG46"/>
+    <mergeCell ref="X47:AG47"/>
     <mergeCell ref="X48:AG48"/>
-    <mergeCell ref="X49:AG49"/>
-    <mergeCell ref="X50:AG50"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="R48:U48"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
